--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2638.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2638.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8043501735374634</v>
+        <v>1.206803679466248</v>
       </c>
       <c r="B1">
-        <v>1.577098766223868</v>
+        <v>2.256045341491699</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.509639501571655</v>
       </c>
       <c r="D1">
-        <v>1.626460381403299</v>
+        <v>2.351178169250488</v>
       </c>
       <c r="E1">
-        <v>0.8729286960010528</v>
+        <v>1.286410570144653</v>
       </c>
     </row>
   </sheetData>
